--- a/3_output/sensitivity_pooled/metareg_pooled.xlsx
+++ b/3_output/sensitivity_pooled/metareg_pooled.xlsx
@@ -2367,26 +2367,26 @@
     </row>
     <row r="2">
       <c r="B2">
-        <v>90.225886885796015</v>
+        <v>86.528277398261437</v>
       </c>
       <c r="D2">
-        <v>90.561277245304879</v>
+        <v>85.865924586844528</v>
       </c>
     </row>
     <row r="3">
       <c r="B3">
-        <v>0.3535534363250617</v>
+        <v>0.2125287220631277</v>
       </c>
       <c r="D3">
-        <v>0.95156274945759389</v>
+        <v>0.99182951719084844</v>
       </c>
     </row>
     <row r="4">
       <c r="B4">
-        <v>90.388371705684861</v>
+        <v>86.372172277392295</v>
       </c>
       <c r="D4">
-        <v>90.388371705684861</v>
+        <v>86.372172277392295</v>
       </c>
     </row>
     <row r="6">
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="18">
-        <v>0.15504083583159248</v>
+        <v>0.18262987511500542</v>
       </c>
       <c r="E6" s="19">
         <v>0</v>
       </c>
       <c r="F6" s="20">
-        <v>-0.051882998044496496</v>
+        <v>-0.022503989839188329</v>
       </c>
       <c r="G6" s="21">
-        <v>-0.35271641329166947</v>
+        <v>-0.36256637447781559</v>
       </c>
     </row>
     <row r="7">
@@ -2417,16 +2417,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="93">
-        <v>-0.025634932058106203</v>
+        <v>-0.012020392366648956</v>
       </c>
       <c r="E7" s="94">
         <v>0</v>
       </c>
       <c r="F7" s="95">
-        <v>-0.018125954313848745</v>
+        <v>-0.0052192638555288275</v>
       </c>
       <c r="G7" s="96">
-        <v>-0.29003256766094354</v>
+        <v>-0.2904487664967017</v>
       </c>
     </row>
     <row r="10">
@@ -2466,31 +2466,31 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>-0.22695384129728555</v>
+        <v>-0.1910105601166735</v>
       </c>
       <c r="D11" s="8">
-        <v>0.078715980302500696</v>
+        <v>0.070101099808628775</v>
       </c>
       <c r="E11" s="9">
-        <v>-0.38123432769795118</v>
+        <v>-0.32840619101823354</v>
       </c>
       <c r="F11" s="10">
-        <v>-0.072673354896619913</v>
+        <v>-0.05361492921511346</v>
       </c>
       <c r="H11" s="81" t="s">
         <v>1</v>
       </c>
       <c r="I11" s="82">
-        <v>-0.32582503204311958</v>
+        <v>-0.36256379356086443</v>
       </c>
       <c r="J11" s="83">
-        <v>0.11018808302512365</v>
+        <v>0.046424304801912411</v>
       </c>
       <c r="K11" s="84">
-        <v>-0.54178970629787116</v>
+        <v>-0.45355375897992262</v>
       </c>
       <c r="L11" s="85">
-        <v>-0.109860357788368</v>
+        <v>-0.27157382814180625</v>
       </c>
     </row>
     <row r="12">
@@ -2498,31 +2498,31 @@
         <v>2</v>
       </c>
       <c r="C12" s="12">
-        <v>-0.3056701370951434</v>
+        <v>-0.29536635448316406</v>
       </c>
       <c r="D12" s="13">
-        <v>0.051295056059680877</v>
+        <v>0.048411353679668569</v>
       </c>
       <c r="E12" s="14">
-        <v>-0.40620659955708094</v>
+        <v>-0.39025086413814508</v>
       </c>
       <c r="F12" s="15">
-        <v>-0.20513367463320586</v>
+        <v>-0.20048184482818307</v>
       </c>
       <c r="H12" s="86" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="87">
-        <v>-0.3056701370951434</v>
+        <v>-0.29536635448316406</v>
       </c>
       <c r="J12" s="88">
-        <v>0.051295056059680877</v>
+        <v>0.048411353679668569</v>
       </c>
       <c r="K12" s="89">
-        <v>-0.40620659955708094</v>
+        <v>-0.39025086413814508</v>
       </c>
       <c r="L12" s="90">
-        <v>-0.20513367463320586</v>
+        <v>-0.20048184482818307</v>
       </c>
     </row>
     <row r="15">
@@ -2533,16 +2533,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="24">
-        <v>0.15504083583159248</v>
+        <v>0.18262987511500542</v>
       </c>
       <c r="E15" s="25">
         <v>0</v>
       </c>
       <c r="F15" s="26">
-        <v>-0.051882998044496496</v>
+        <v>-0.022503989839188329</v>
       </c>
       <c r="G15" s="27">
-        <v>-0.35271641329166947</v>
+        <v>-0.36256637447781559</v>
       </c>
       <c r="J15" s="97" t="s">
         <v>5</v>
@@ -2551,16 +2551,16 @@
         <v>0</v>
       </c>
       <c r="L15" s="99">
-        <v>-0.025634932058106203</v>
+        <v>-0.012020392366648956</v>
       </c>
       <c r="M15" s="100">
         <v>0</v>
       </c>
       <c r="N15" s="101">
-        <v>-0.018125954313848745</v>
+        <v>-0.0052192638555288275</v>
       </c>
       <c r="O15" s="102">
-        <v>-0.29003256766094354</v>
+        <v>-0.2904487664967017</v>
       </c>
     </row>
     <row r="16">
@@ -2569,28 +2569,28 @@
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="30">
-        <v>0.10910457879583434</v>
+        <v>0.10387003681721654</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="32">
-        <v>0.10887801324475611</v>
+        <v>0.10337781427288698</v>
       </c>
       <c r="G16" s="33">
-        <v>0.084823124136872222</v>
+        <v>0.078580496295532057</v>
       </c>
       <c r="J16" s="103" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="104"/>
       <c r="L16" s="105">
-        <v>0.12657890116121021</v>
+        <v>0.11852340518269568</v>
       </c>
       <c r="M16" s="106"/>
       <c r="N16" s="107">
-        <v>0.11630139358094937</v>
+        <v>0.10295625621791381</v>
       </c>
       <c r="O16" s="108">
-        <v>0.07744126327074187</v>
+        <v>0.068028942898843134</v>
       </c>
     </row>
     <row r="17">
@@ -2599,28 +2599,28 @@
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="36">
-        <v>1.4210295987826316</v>
+        <v>1.7582536861557594</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="38">
-        <v>-0.47652410710199411</v>
+        <v>-0.21768684119964488</v>
       </c>
       <c r="G17" s="39">
-        <v>-4.1582577496499598</v>
+        <v>-4.6139486459113961</v>
       </c>
       <c r="J17" s="109" t="s">
         <v>7</v>
       </c>
       <c r="K17" s="110"/>
       <c r="L17" s="111">
-        <v>-0.20252136669647411</v>
+        <v>-0.10141787900980695</v>
       </c>
       <c r="M17" s="112"/>
       <c r="N17" s="113">
-        <v>-0.15585328563782444</v>
+        <v>-0.05069399419965219</v>
       </c>
       <c r="O17" s="114">
-        <v>-3.7451941692500892</v>
+        <v>-4.2694881637156961</v>
       </c>
     </row>
     <row r="18">
@@ -2629,28 +2629,28 @@
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="42">
-        <v>0.15530815481543675</v>
+        <v>0.078704354179108399</v>
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="44">
-        <v>0.63370103701053992</v>
+        <v>0.82767311702595148</v>
       </c>
       <c r="G18" s="45">
-        <v>3.2068406899572506e-05</v>
+        <v>3.950900834991286e-06</v>
       </c>
       <c r="J18" s="115" t="s">
         <v>8</v>
       </c>
       <c r="K18" s="116"/>
       <c r="L18" s="117">
-        <v>0.83950915627017198</v>
+        <v>0.91921874425196559</v>
       </c>
       <c r="M18" s="118"/>
       <c r="N18" s="119">
-        <v>0.8761486678999677</v>
+        <v>0.95956936243208513</v>
       </c>
       <c r="O18" s="120">
-        <v>0.00018025431013000897</v>
+        <v>1.9592204553460143e-05</v>
       </c>
     </row>
     <row r="19">
@@ -2659,28 +2659,28 @@
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="48">
-        <v>-0.058800209156655264</v>
+        <v>-0.020951656119588408</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="50">
-        <v>-0.26527998271249342</v>
+        <v>-0.22512078261451754</v>
       </c>
       <c r="G19" s="51">
-        <v>-0.51896668165610915</v>
+        <v>-0.51658131710434152</v>
       </c>
       <c r="J19" s="121" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="122"/>
       <c r="L19" s="123">
-        <v>-0.27372501953673339</v>
+        <v>-0.24432199784978043</v>
       </c>
       <c r="M19" s="124"/>
       <c r="N19" s="125">
-        <v>-0.24607249708432733</v>
+        <v>-0.20700981802571786</v>
       </c>
       <c r="O19" s="126">
-        <v>-0.44181465458888214</v>
+        <v>-0.42378304448476611</v>
       </c>
     </row>
     <row r="20">
@@ -2689,28 +2689,28 @@
       </c>
       <c r="C20" s="53"/>
       <c r="D20" s="54">
-        <v>0.36888188081984019</v>
+        <v>0.38621140634959927</v>
       </c>
       <c r="E20" s="55"/>
       <c r="F20" s="56">
-        <v>0.16151398662350044</v>
+        <v>0.18011280293614088</v>
       </c>
       <c r="G20" s="57">
-        <v>-0.18646614492722977</v>
+        <v>-0.20855143185128963</v>
       </c>
       <c r="J20" s="127" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="128"/>
       <c r="L20" s="129">
-        <v>0.22245515542052099</v>
+        <v>0.22028121311648252</v>
       </c>
       <c r="M20" s="130"/>
       <c r="N20" s="131">
-        <v>0.20982058845662982</v>
+        <v>0.19657129031466022</v>
       </c>
       <c r="O20" s="132">
-        <v>-0.13825048073300497</v>
+        <v>-0.15711448850863732</v>
       </c>
     </row>
     <row r="21">
